--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
     <definedName name="step">'#system'!$V$2:$V$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$121</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
     <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
     <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1620,6 +1620,12 @@
   </si>
   <si>
     <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1633,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2108,8 +2114,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2740,8 +2847,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3907,6 +4167,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3914,7 +4456,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4187,52 +4729,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4557,7 +5147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5489,7 +6079,7 @@
         <v>391</v>
       </c>
       <c r="W21" t="s">
-        <v>108</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22">
@@ -6061,7 +6651,7 @@
         <v>275</v>
       </c>
       <c r="W82" t="s">
-        <v>199</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83">
@@ -6069,7 +6659,7 @@
         <v>270</v>
       </c>
       <c r="W83" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84">
@@ -6077,7 +6667,7 @@
         <v>287</v>
       </c>
       <c r="W84" t="s">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85">
@@ -6085,7 +6675,7 @@
         <v>271</v>
       </c>
       <c r="W85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
@@ -6093,7 +6683,7 @@
         <v>272</v>
       </c>
       <c r="W86" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -6101,7 +6691,7 @@
         <v>304</v>
       </c>
       <c r="W87" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88">
@@ -6109,7 +6699,7 @@
         <v>310</v>
       </c>
       <c r="W88" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
@@ -6117,7 +6707,7 @@
         <v>294</v>
       </c>
       <c r="W89" t="s">
-        <v>441</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
@@ -6125,7 +6715,7 @@
         <v>339</v>
       </c>
       <c r="W90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="91">
@@ -6133,7 +6723,7 @@
         <v>276</v>
       </c>
       <c r="W91" t="s">
-        <v>203</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92">
@@ -6141,151 +6731,156 @@
         <v>277</v>
       </c>
       <c r="W92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
       <c r="W93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="W94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="W95" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="W96" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97">
       <c r="W97" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="W98" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="W99" t="s">
-        <v>149</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100">
       <c r="W100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="W101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="W102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="W103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="W104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="W105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="W106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="W107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="W108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="W109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="W110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="W111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="W112" t="s">
-        <v>443</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="W113" t="s">
-        <v>162</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114">
       <c r="W114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="W115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="W116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="W117" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="W118" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119">
       <c r="W119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="W120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="W121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="W122" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -19,37 +19,38 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3030" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="541">
   <si>
     <t>description</t>
   </si>
@@ -1626,6 +1627,78 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1706,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2215,8 +2288,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3000,8 +3376,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -4449,6 +5284,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4456,7 +6137,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4777,52 +6458,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="132" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="135" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="93" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5147,7 +6972,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5169,78 +6994,81 @@
         <v>454</v>
       </c>
       <c r="D1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>346</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>332</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>510</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>195</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>52</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>395</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>411</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>412</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>356</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>396</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>413</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5255,79 +7083,82 @@
         <v>455</v>
       </c>
       <c r="D2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>449</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>460</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>314</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>383</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>434</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>511</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>416</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>429</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>252</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>216</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>397</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>418</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>419</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>380</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>406</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>170</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>175</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>182</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>431</v>
       </c>
-      <c r="AB2" t="s">
-        <v>227</v>
+      <c r="AC2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="3">
@@ -5341,1546 +7172,1618 @@
         <v>456</v>
       </c>
       <c r="D3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E3" t="s">
         <v>457</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>364</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>475</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>348</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>340</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>333</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>85</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>514</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>430</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>239</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>217</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>398</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>420</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>381</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>407</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>97</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>171</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>363</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>183</v>
       </c>
-      <c r="AB3" t="s">
-        <v>228</v>
+      <c r="AC3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>517</v>
       </c>
       <c r="B4" t="s">
         <v>373</v>
       </c>
       <c r="D4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>386</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>450</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>508</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>349</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>237</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>334</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>513</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>240</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>218</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>399</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>421</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>357</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>408</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>172</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>183</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>423</v>
       </c>
-      <c r="AB4" t="s">
-        <v>229</v>
+      <c r="AC4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
       </c>
       <c r="D5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" t="s">
         <v>458</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>432</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>335</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>459</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>350</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>461</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>241</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>219</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>400</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>422</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>358</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>173</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>184</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>424</v>
       </c>
-      <c r="AB5" t="s">
-        <v>230</v>
+      <c r="AC5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
       <c r="F6" t="s">
+        <v>534</v>
+      </c>
+      <c r="G6" t="s">
         <v>387</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>447</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>347</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>30</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>242</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>390</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>401</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>360</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>98</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>444</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>185</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>425</v>
       </c>
-      <c r="AB6" t="s">
-        <v>231</v>
+      <c r="AC6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>223</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>365</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>446</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>243</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>417</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>402</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>359</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>99</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>445</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>180</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>186</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>426</v>
       </c>
-      <c r="AB7" t="s">
-        <v>232</v>
+      <c r="AC7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>317</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>366</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>327</v>
       </c>
-      <c r="J8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
+        <v>535</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>90</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>244</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>403</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>361</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>100</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>174</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>181</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>187</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>427</v>
       </c>
-      <c r="AB8" t="s">
-        <v>233</v>
+      <c r="AC8" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>305</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>328</v>
       </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>91</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>245</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>404</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>362</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>208</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>188</v>
       </c>
-      <c r="AB9" t="s">
-        <v>473</v>
+      <c r="AC9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" t="s">
         <v>314</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>351</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>451</v>
       </c>
-      <c r="J10" t="s">
-        <v>389</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>436</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>246</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>405</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>256</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>189</v>
       </c>
-      <c r="AB10" t="s">
-        <v>474</v>
+      <c r="AC10" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>254</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>273</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>321</v>
       </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
+        <v>536</v>
+      </c>
+      <c r="M11" t="s">
         <v>470</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>92</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>247</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>257</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>258</v>
       </c>
-      <c r="AB11" t="s">
-        <v>234</v>
+      <c r="AC11" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
         <v>318</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>262</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>322</v>
       </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
+        <v>389</v>
+      </c>
+      <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>40</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>248</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>101</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>190</v>
       </c>
-      <c r="AB12" t="s">
-        <v>235</v>
+      <c r="AC12" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>510</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>340</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>315</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>323</v>
       </c>
-      <c r="J13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
         <v>471</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>93</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>253</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>325</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>191</v>
       </c>
-      <c r="AB13" t="s">
-        <v>236</v>
+      <c r="AC13" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>263</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>324</v>
       </c>
-      <c r="J14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>94</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>249</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>102</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>192</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>264</v>
       </c>
-      <c r="J15" t="s">
-        <v>462</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K15" t="s">
+        <v>537</v>
+      </c>
+      <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="O15" t="s">
-        <v>95</v>
-      </c>
       <c r="P15" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q15" t="s">
         <v>250</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>103</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>193</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>384</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>316</v>
       </c>
-      <c r="J16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="K16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q16" t="s">
         <v>251</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>74</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>194</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
         <v>385</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" t="s">
-        <v>83</v>
-      </c>
-      <c r="W17" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="K17" t="s">
+        <v>81</v>
+      </c>
+      <c r="X17" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA17" t="s">
         <v>466</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
         <v>414</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
-      <c r="J18" t="s">
-        <v>379</v>
-      </c>
-      <c r="W18" t="s">
-        <v>105</v>
+      <c r="K18" t="s">
+        <v>462</v>
+      </c>
+      <c r="X18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>411</v>
-      </c>
-      <c r="D19" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>295</v>
       </c>
-      <c r="J19" t="s">
-        <v>469</v>
-      </c>
-      <c r="W19" t="s">
-        <v>106</v>
+      <c r="K19" t="s">
+        <v>82</v>
+      </c>
+      <c r="X19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>296</v>
       </c>
-      <c r="J20" t="s">
-        <v>43</v>
-      </c>
-      <c r="W20" t="s">
-        <v>107</v>
+      <c r="K20" t="s">
+        <v>83</v>
+      </c>
+      <c r="X20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>356</v>
-      </c>
-      <c r="D21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
         <v>255</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>297</v>
       </c>
-      <c r="J21" t="s">
-        <v>391</v>
-      </c>
-      <c r="W21" t="s">
-        <v>515</v>
+      <c r="K21" t="s">
+        <v>379</v>
+      </c>
+      <c r="X21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>298</v>
       </c>
-      <c r="J22" t="s">
-        <v>84</v>
-      </c>
-      <c r="W22" t="s">
-        <v>109</v>
+      <c r="K22" t="s">
+        <v>469</v>
+      </c>
+      <c r="X22" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" t="s">
         <v>320</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>289</v>
       </c>
-      <c r="J23" t="s">
-        <v>433</v>
-      </c>
-      <c r="W23" t="s">
-        <v>110</v>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="X23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>278</v>
       </c>
-      <c r="J24" t="s">
-        <v>44</v>
-      </c>
-      <c r="W24" t="s">
-        <v>111</v>
+      <c r="K24" t="s">
+        <v>391</v>
+      </c>
+      <c r="X24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
         <v>448</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>75</v>
       </c>
-      <c r="J25" t="s">
-        <v>45</v>
-      </c>
-      <c r="W25" t="s">
-        <v>112</v>
+      <c r="K25" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
         <v>224</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>281</v>
       </c>
-      <c r="W26" t="s">
-        <v>113</v>
+      <c r="K26" t="s">
+        <v>433</v>
+      </c>
+      <c r="X26" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>413</v>
-      </c>
-      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
         <v>225</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>265</v>
       </c>
-      <c r="W27" t="s">
-        <v>326</v>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="X27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" t="s">
+        <v>467</v>
+      </c>
+      <c r="G28" t="s">
+        <v>282</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+      <c r="X28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>226</v>
       </c>
-      <c r="D28" t="s">
-        <v>467</v>
-      </c>
-      <c r="F28" t="s">
-        <v>282</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>468</v>
+      </c>
+      <c r="G29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>468</v>
-      </c>
-      <c r="F29" t="s">
-        <v>283</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" t="s">
+        <v>215</v>
+      </c>
+      <c r="X30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>415</v>
-      </c>
-      <c r="F30" t="s">
-        <v>215</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
+        <v>274</v>
+      </c>
+      <c r="X31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>274</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>284</v>
+      </c>
+      <c r="X32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>284</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="s">
+        <v>539</v>
+      </c>
+      <c r="X33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X34" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X35" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X36" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X38" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X39" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X40" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X41" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X46" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X47" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X52" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X53" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X54" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X55" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X56" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X57" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X59" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X61" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X62" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X63" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X64" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X65" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X66" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X67" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X68" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X70" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X72" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X73" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>540</v>
+      </c>
+      <c r="X74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="W73" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="F74" t="s">
+      <c r="X75" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="W74" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="s">
+      <c r="X76" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="W75" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="F76" t="s">
+      <c r="X77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="W76" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="F77" t="s">
+      <c r="X78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="W77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="F78" t="s">
+      <c r="X79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="W78" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="s">
+      <c r="X80" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X81" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X82" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X84" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
         <v>270</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X85" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
         <v>287</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X86" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
         <v>271</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X87" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X88" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X89" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X90" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
         <v>294</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X91" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
         <v>339</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X92" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
+    <row r="93">
+      <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X93" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
+    <row r="94">
+      <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X94" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="X101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="125">
+      <c r="X125" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5615" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1699,6 +1699,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1712,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2591,8 +2597,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="280">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3835,8 +4043,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6130,6 +6678,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6137,7 +7249,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6602,52 +7714,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="204" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="210" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="213" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="216" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="141" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="261" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="267" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="270" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6972,7 +8180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8664,126 +9872,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>148</v>
+        <v>541</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>149</v>
+        <v>542</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>163</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -30,27 +30,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5615" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1705,6 +1706,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1734,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="203" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2799,8 +2821,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="280">
+  <fills count="340">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4383,8 +4607,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7242,6 +7806,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7249,7 +8377,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="229">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7810,52 +8938,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="249" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="252" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="255" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="261" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="261" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="264" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="264" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="267" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="267" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="270" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="270" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="273" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="273" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="273" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="276" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="279" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="279" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="282" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="285" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="288" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="291" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="294" fontId="177" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="297" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="300" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="303" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="303" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="312" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="315" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="318" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="321" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="327" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="330" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8180,7 +9404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8232,51 +9456,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>543</v>
+      </c>
+      <c r="O1" t="s">
         <v>510</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>195</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>356</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>396</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8321,51 +9548,54 @@
         <v>434</v>
       </c>
       <c r="N2" t="s">
+        <v>544</v>
+      </c>
+      <c r="O2" t="s">
         <v>511</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>416</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>252</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>216</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>419</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>380</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>182</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>526</v>
       </c>
     </row>
@@ -8410,45 +9640,48 @@
         <v>85</v>
       </c>
       <c r="N3" t="s">
+        <v>545</v>
+      </c>
+      <c r="O3" t="s">
         <v>514</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>239</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>217</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>398</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>420</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>381</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -8490,45 +9723,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>546</v>
+      </c>
+      <c r="O4" t="s">
         <v>513</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>240</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>218</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>421</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>172</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>183</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>423</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8563,40 +9799,43 @@
       <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>241</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>400</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>422</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>173</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>184</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>424</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -8628,37 +9867,40 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>242</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>390</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>401</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>444</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>185</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>425</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -8684,37 +9926,40 @@
       <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>243</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>402</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>445</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>186</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>426</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8740,34 +9985,34 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>244</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>403</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>174</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>187</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>427</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -8793,25 +10038,25 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>245</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>404</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8834,22 +10079,22 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>436</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>246</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>473</v>
       </c>
     </row>
@@ -8872,19 +10117,19 @@
       <c r="M11" t="s">
         <v>470</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>527</v>
       </c>
     </row>
@@ -8907,19 +10152,19 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>528</v>
       </c>
     </row>
@@ -8942,25 +10187,25 @@
       <c r="M13" t="s">
         <v>471</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -8977,25 +10222,25 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>510</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -9009,25 +10254,25 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>522</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
         <v>384</v>
@@ -9041,25 +10286,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>523</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>385</v>
@@ -9070,19 +10315,19 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>524</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -9093,16 +10338,16 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -9113,16 +10358,16 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -9133,16 +10378,16 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
         <v>255</v>
@@ -9153,16 +10398,16 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -9173,13 +10418,13 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
         <v>320</v>
@@ -9190,13 +10435,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -9207,13 +10452,13 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>448</v>
@@ -9224,13 +10469,13 @@
       <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>224</v>
@@ -9241,13 +10486,13 @@
       <c r="K26" t="s">
         <v>433</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>225</v>
@@ -9258,13 +10503,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>467</v>
@@ -9275,13 +10520,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>468</v>
@@ -9289,18 +10534,21 @@
       <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
       <c r="E30" t="s">
         <v>415</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9311,7 +10559,7 @@
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9322,7 +10570,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9333,7 +10581,7 @@
       <c r="G33" t="s">
         <v>539</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9344,7 +10592,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9355,7 +10603,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9366,7 +10614,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9377,7 +10625,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -9388,7 +10636,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -9396,7 +10644,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9404,7 +10652,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9412,7 +10660,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9420,7 +10668,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9428,7 +10676,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9436,7 +10684,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9444,7 +10692,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9452,7 +10700,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9460,7 +10708,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>212</v>
       </c>
     </row>
@@ -9468,7 +10716,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9476,7 +10724,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9484,7 +10732,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9492,7 +10740,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9500,7 +10748,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>509</v>
       </c>
     </row>
@@ -9508,7 +10756,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>463</v>
       </c>
     </row>
@@ -9516,7 +10764,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9524,7 +10772,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>345</v>
       </c>
     </row>
@@ -9532,7 +10780,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>464</v>
       </c>
     </row>
@@ -9540,7 +10788,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9548,7 +10796,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9556,7 +10804,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9564,7 +10812,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9572,7 +10820,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9580,7 +10828,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -9588,7 +10836,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -9596,7 +10844,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>439</v>
       </c>
     </row>
@@ -9604,7 +10852,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>472</v>
       </c>
     </row>
@@ -9612,7 +10860,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>213</v>
       </c>
     </row>
@@ -9620,7 +10868,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9628,7 +10876,7 @@
       <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9636,7 +10884,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9644,7 +10892,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -9652,7 +10900,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9660,7 +10908,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -9668,7 +10916,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -9676,7 +10924,7 @@
       <c r="G74" t="s">
         <v>540</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>197</v>
       </c>
     </row>
@@ -9684,7 +10932,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>452</v>
       </c>
     </row>
@@ -9692,7 +10940,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>465</v>
       </c>
     </row>
@@ -9700,7 +10948,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -9708,7 +10956,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9716,7 +10964,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -9724,7 +10972,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9732,7 +10980,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9740,7 +10988,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9748,7 +10996,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>198</v>
       </c>
     </row>
@@ -9756,7 +11004,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>516</v>
       </c>
     </row>
@@ -9764,7 +11012,7 @@
       <c r="G85" t="s">
         <v>270</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -9772,7 +11020,7 @@
       <c r="G86" t="s">
         <v>287</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>453</v>
       </c>
     </row>
@@ -9780,7 +11028,7 @@
       <c r="G87" t="s">
         <v>271</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>200</v>
       </c>
     </row>
@@ -9788,7 +11036,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>201</v>
       </c>
     </row>
@@ -9796,7 +11044,7 @@
       <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9804,7 +11052,7 @@
       <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>147</v>
       </c>
     </row>
@@ -9812,7 +11060,7 @@
       <c r="G91" t="s">
         <v>294</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>202</v>
       </c>
     </row>
@@ -9820,7 +11068,7 @@
       <c r="G92" t="s">
         <v>339</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>441</v>
       </c>
     </row>
@@ -9828,7 +11076,7 @@
       <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>442</v>
       </c>
     </row>
@@ -9836,172 +11084,172 @@
       <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6671" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9335" uniqueCount="557">
   <si>
     <t>description</t>
   </si>
@@ -1727,6 +1727,27 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>exportExcel(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1755,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="203" x14ac:knownFonts="1">
+  <fonts count="283" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3023,8 +3044,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="340">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4947,8 +5473,858 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -8370,6 +9746,1416 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8377,7 +11163,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="309">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9034,52 +11820,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="309" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="312" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="312" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="315" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="315" fontId="189" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="318" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="318" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="321" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="321" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="327" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="327" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="330" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="330" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="333" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="333" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="333" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="336" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="321" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="342" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="345" fontId="205" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="348" fontId="206" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="351" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="209" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="357" fontId="211" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="360" fontId="212" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="363" fontId="213" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="363" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="372" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="375" fontId="221" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="378" fontId="222" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="381" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="225" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="387" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="390" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="393" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="393" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="402" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="405" fontId="237" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="408" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="411" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="417" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="420" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="423" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="423" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="432" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="435" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="438" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="441" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="256" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="257" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="447" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="450" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="453" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="453" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="266" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="462" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="465" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="468" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="471" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="477" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="480" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="483" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="483" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9800,7 +12826,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -9868,7 +12894,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -9927,7 +12953,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -9985,6 +13011,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>552</v>
+      </c>
       <c r="Q8" t="s">
         <v>90</v>
       </c>
@@ -10038,6 +13067,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>555</v>
+      </c>
       <c r="Q9" t="s">
         <v>91</v>
       </c>
@@ -10079,6 +13111,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>547</v>
+      </c>
       <c r="Q10" t="s">
         <v>436</v>
       </c>
@@ -10117,6 +13152,9 @@
       <c r="M11" t="s">
         <v>470</v>
       </c>
+      <c r="N11" t="s">
+        <v>548</v>
+      </c>
       <c r="Q11" t="s">
         <v>92</v>
       </c>
@@ -10152,6 +13190,9 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
+      <c r="N12" t="s">
+        <v>549</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -10467,7 +13508,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>553</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>
@@ -10484,7 +13525,7 @@
         <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
         <v>112</v>
@@ -10501,7 +13542,7 @@
         <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Y27" t="s">
         <v>113</v>
@@ -10518,7 +13559,7 @@
         <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>326</v>
@@ -10533,6 +13574,9 @@
       </c>
       <c r="G29" t="s">
         <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>114</v>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -50,7 +50,7 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9335" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9870" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1748,6 +1748,9 @@
   </si>
   <si>
     <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1758,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="283" x14ac:knownFonts="1">
+  <fonts count="299" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3549,8 +3552,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="520">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6323,8 +6427,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -11156,6 +11430,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11163,7 +11719,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="325">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12060,52 +12616,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="462" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="462" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="465" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="465" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="468" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="468" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="471" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="471" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="273" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="477" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="477" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="480" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="480" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="483" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="483" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="483" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="483" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="492" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="495" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="498" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="501" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="507" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="510" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="513" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12636,7 +13240,7 @@
         <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>519</v>
+        <v>557</v>
       </c>
       <c r="E3" t="s">
         <v>457</v>
@@ -12719,7 +13323,7 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -12802,7 +13406,7 @@
         <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E5" t="s">
         <v>458</v>
@@ -12871,6 +13475,9 @@
       </c>
       <c r="B6" t="s">
         <v>375</v>
+      </c>
+      <c r="D6" t="s">
+        <v>521</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9870" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10940" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1751,6 +1751,9 @@
   </si>
   <si>
     <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1761,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="299" x14ac:knownFonts="1">
+  <fonts count="331" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3653,8 +3656,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="520">
+  <fills count="580">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6597,8 +6802,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11712,6 +12257,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11719,7 +12828,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="357">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12664,52 +13773,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="492" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="492" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="495" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="495" fontId="285" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="498" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="498" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="501" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="501" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="288" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="289" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="507" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="507" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="510" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="510" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="513" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="513" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="519" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="522" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="525" fontId="301" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="528" fontId="302" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="531" fontId="303" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="305" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="537" fontId="307" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="540" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="543" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="543" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="552" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="555" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="567" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="570" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="573" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14115,7 +15320,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -19,17 +19,17 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,16 +42,17 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10940" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13144" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1754,6 +1755,60 @@
   </si>
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1816,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="331" x14ac:knownFonts="1">
+  <fonts count="395" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3858,8 +3913,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="580">
+  <fills count="688">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7142,8 +7601,620 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="691">
     <border>
       <left/>
       <right/>
@@ -12821,6 +13892,1310 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12828,7 +15203,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="421">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13869,52 +16244,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="552" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="552" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="555" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="555" fontId="317" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="320" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="321" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="567" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="567" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="570" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="570" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="573" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="573" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="573" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="582" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="585" fontId="333" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="588" fontId="334" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="591" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="337" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="597" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="588" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="600" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="600" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="344" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="345" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="346" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="609" fontId="347" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="612" fontId="349" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="615" fontId="350" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="618" fontId="351" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="352" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="353" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="624" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="615" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="627" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="627" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="636" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="639" fontId="365" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="642" fontId="366" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="645" fontId="367" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="368" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="369" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="651" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="642" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="654" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="654" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="663" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="666" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="669" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="672" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="678" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="669" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="681" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="681" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14239,7 +16806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14324,21 +16891,24 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14416,21 +16986,24 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14501,22 +17074,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14584,22 +17157,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -14625,6 +17198,9 @@
       <c r="H5" t="s">
         <v>459</v>
       </c>
+      <c r="I5" t="s">
+        <v>561</v>
+      </c>
       <c r="J5" t="s">
         <v>350</v>
       </c>
@@ -14655,22 +17231,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>354</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -14723,22 +17299,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -14758,6 +17334,9 @@
       <c r="H7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>562</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -14782,23 +17361,23 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
-        <v>231</v>
+      <c r="AE7" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="8">
@@ -14838,23 +17417,23 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
-        <v>232</v>
+      <c r="AE8" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="9">
@@ -14894,14 +17473,14 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
-        <v>233</v>
+      <c r="AE9" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="10">
@@ -14935,14 +17514,14 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
-        <v>473</v>
+      <c r="AE10" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -14973,14 +17552,14 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
-        <v>527</v>
+      <c r="AE11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -15000,7 +17579,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>435</v>
+        <v>563</v>
       </c>
       <c r="N12" t="s">
         <v>549</v>
@@ -15011,14 +17590,14 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
-        <v>528</v>
+      <c r="AE12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -15038,7 +17617,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="Q13" t="s">
         <v>93</v>
@@ -15046,14 +17625,14 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
-        <v>529</v>
+      <c r="AE13" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14">
@@ -15073,7 +17652,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>471</v>
       </c>
       <c r="Q14" t="s">
         <v>94</v>
@@ -15081,14 +17660,14 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
-        <v>530</v>
+      <c r="AE14" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="15">
@@ -15105,7 +17684,7 @@
         <v>537</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>522</v>
@@ -15113,14 +17692,14 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
-        <v>474</v>
+      <c r="AE15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="16">
@@ -15137,7 +17716,7 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>523</v>
@@ -15145,14 +17724,14 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
-        <v>531</v>
+      <c r="AE16" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="17">
@@ -15168,14 +17747,17 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s">
         <v>524</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
-        <v>532</v>
+      <c r="AE17" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="18">
@@ -15191,11 +17773,11 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
-        <v>533</v>
+      <c r="AE18" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="19">
@@ -15211,11 +17793,11 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
-        <v>234</v>
+      <c r="AE19" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="20">
@@ -15231,11 +17813,11 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
-        <v>235</v>
+      <c r="AE20" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="21">
@@ -15251,11 +17833,11 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
-        <v>236</v>
+      <c r="AE21" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="22">
@@ -15263,7 +17845,7 @@
         <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>573</v>
       </c>
       <c r="G22" t="s">
         <v>298</v>
@@ -15271,8 +17853,11 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>515</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23">
@@ -15280,7 +17865,7 @@
         <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>289</v>
@@ -15288,8 +17873,11 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>109</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="24">
@@ -15297,7 +17885,7 @@
         <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
         <v>278</v>
@@ -15305,16 +17893,19 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>110</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>572</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
         <v>75</v>
@@ -15322,16 +17913,19 @@
       <c r="K25" t="s">
         <v>558</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>111</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="G26" t="s">
         <v>281</v>
@@ -15339,16 +17933,19 @@
       <c r="K26" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>112</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>265</v>
@@ -15356,16 +17953,19 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>113</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>282</v>
@@ -15373,16 +17973,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G29" t="s">
         <v>283</v>
@@ -15390,722 +17990,747 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>539</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Y39" t="s">
-        <v>392</v>
+      <c r="Z39" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="Y40" t="s">
-        <v>121</v>
+      <c r="Z40" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="Y41" t="s">
-        <v>122</v>
+      <c r="Z41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>123</v>
+        <v>575</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>124</v>
+        <v>288</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>125</v>
+        <v>299</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>126</v>
+        <v>300</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>438</v>
+        <v>342</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>212</v>
+        <v>341</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>76</v>
+        <v>210</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>127</v>
+        <v>319</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>128</v>
+        <v>338</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>129</v>
+        <v>367</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>509</v>
+        <v>301</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>463</v>
+        <v>355</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>130</v>
+        <v>330</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>345</v>
+        <v>267</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>464</v>
+        <v>291</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>131</v>
+        <v>292</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>132</v>
+        <v>576</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>133</v>
+        <v>293</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>134</v>
+        <v>302</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>135</v>
+        <v>311</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>136</v>
+        <v>336</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>137</v>
+        <v>308</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>439</v>
+        <v>309</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>472</v>
+        <v>368</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>213</v>
+        <v>369</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>388</v>
+        <v>344</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>440</v>
+        <v>312</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>138</v>
+        <v>268</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>139</v>
+        <v>559</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>140</v>
+        <v>313</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>141</v>
+        <v>409</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>196</v>
+        <v>303</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>540</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>197</v>
+        <v>410</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>452</v>
+        <v>261</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>465</v>
+        <v>540</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>142</v>
+        <v>343</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>143</v>
+        <v>279</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>144</v>
+        <v>285</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>525</v>
+        <v>290</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>145</v>
+        <v>428</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>146</v>
+        <v>331</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>198</v>
+        <v>269</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>516</v>
+        <v>280</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>199</v>
+        <v>286</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>453</v>
+        <v>275</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>200</v>
+        <v>560</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>201</v>
+        <v>270</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>214</v>
+        <v>287</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>147</v>
+        <v>271</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>202</v>
+        <v>272</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>441</v>
+        <v>304</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>442</v>
+        <v>310</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>277</v>
       </c>
-      <c r="Y94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,13 +42,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13144" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13695" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1809,6 +1809,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1819,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="395" x14ac:knownFonts="1">
+  <fonts count="411" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4317,8 +4320,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="688">
+  <fills count="715">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8213,8 +8317,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="691">
+  <borders count="723">
     <border>
       <left/>
       <right/>
@@ -13714,6 +13971,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15203,7 +15786,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="437">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16436,52 +17019,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="663" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="663" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="666" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="666" fontId="381" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="669" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="669" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="672" borderId="678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="678" fillId="672" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="384" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="385" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="678" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="678" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="669" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="669" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="681" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="681" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="681" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="681" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="394" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="690" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="693" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="696" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="699" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="705" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="696" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="708" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="708" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16806,7 +17437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16891,24 +17522,21 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
-        <v>572</v>
+        <v>53</v>
       </c>
       <c r="Z1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="AD1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -16986,24 +17614,21 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
-        <v>574</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="AA2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AC2" t="s">
-        <v>182</v>
+        <v>431</v>
       </c>
       <c r="AD2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE2" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17074,22 +17699,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="AA3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB3" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="AC3" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="AD3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -17157,22 +17782,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
+      <c r="Y4" t="s">
+        <v>353</v>
+      </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC4" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -17231,22 +17856,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
+      <c r="Y5" t="s">
+        <v>354</v>
+      </c>
       <c r="Z5" t="s">
-        <v>354</v>
+        <v>173</v>
       </c>
       <c r="AA5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17299,22 +17924,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="AA6" t="s">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="AB6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC6" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AD6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -17361,22 +17986,22 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="AA7" t="s">
-        <v>445</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC7" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE7" t="s">
         <v>566</v>
       </c>
     </row>
@@ -17417,22 +18042,22 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="AA8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AB8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC8" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE8" t="s">
         <v>567</v>
       </c>
     </row>
@@ -17473,13 +18098,13 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>568</v>
       </c>
     </row>
@@ -17514,13 +18139,13 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -17552,13 +18177,13 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17590,13 +18215,13 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -17625,13 +18250,13 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>473</v>
       </c>
     </row>
@@ -17660,13 +18285,13 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>527</v>
       </c>
     </row>
@@ -17692,13 +18317,13 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>528</v>
       </c>
     </row>
@@ -17716,7 +18341,7 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>577</v>
       </c>
       <c r="Q16" t="s">
         <v>523</v>
@@ -17724,13 +18349,13 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>529</v>
       </c>
     </row>
@@ -17748,15 +18373,15 @@
         <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>524</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>530</v>
       </c>
     </row>
@@ -17773,10 +18398,13 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -17793,10 +18421,10 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>531</v>
       </c>
     </row>
@@ -17813,10 +18441,10 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>532</v>
       </c>
     </row>
@@ -17833,10 +18461,10 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>533</v>
       </c>
     </row>
@@ -17853,10 +18481,10 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>515</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -17873,10 +18501,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>569</v>
       </c>
     </row>
@@ -17893,16 +18521,16 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>572</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
@@ -17913,16 +18541,16 @@
       <c r="K25" t="s">
         <v>558</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>448</v>
@@ -17933,16 +18561,16 @@
       <c r="K26" t="s">
         <v>84</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>224</v>
@@ -17953,16 +18581,16 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>225</v>
@@ -17973,13 +18601,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>467</v>
@@ -17990,13 +18618,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
         <v>468</v>
@@ -18004,21 +18632,18 @@
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>226</v>
-      </c>
       <c r="E31" t="s">
         <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -18029,7 +18654,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18040,7 +18665,7 @@
       <c r="G33" t="s">
         <v>539</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18051,7 +18676,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -18062,7 +18687,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -18073,7 +18698,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -18084,7 +18709,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -18095,7 +18720,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -18106,7 +18731,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>564</v>
       </c>
     </row>
@@ -18114,7 +18739,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>392</v>
       </c>
     </row>
@@ -18122,7 +18747,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -18130,7 +18755,7 @@
       <c r="G42" t="s">
         <v>575</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -18138,7 +18763,7 @@
       <c r="G43" t="s">
         <v>288</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -18146,7 +18771,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -18154,7 +18779,7 @@
       <c r="G45" t="s">
         <v>300</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -18162,7 +18787,7 @@
       <c r="G46" t="s">
         <v>342</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>126</v>
       </c>
     </row>
@@ -18170,7 +18795,7 @@
       <c r="G47" t="s">
         <v>341</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>438</v>
       </c>
     </row>
@@ -18178,7 +18803,7 @@
       <c r="G48" t="s">
         <v>210</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>212</v>
       </c>
     </row>
@@ -18186,7 +18811,7 @@
       <c r="G49" t="s">
         <v>319</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -18194,7 +18819,7 @@
       <c r="G50" t="s">
         <v>338</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>565</v>
       </c>
     </row>
@@ -18202,7 +18827,7 @@
       <c r="G51" t="s">
         <v>367</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>127</v>
       </c>
     </row>
@@ -18210,7 +18835,7 @@
       <c r="G52" t="s">
         <v>301</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>128</v>
       </c>
     </row>
@@ -18218,7 +18843,7 @@
       <c r="G53" t="s">
         <v>355</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18226,7 +18851,7 @@
       <c r="G54" t="s">
         <v>330</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>509</v>
       </c>
     </row>
@@ -18234,7 +18859,7 @@
       <c r="G55" t="s">
         <v>267</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>463</v>
       </c>
     </row>
@@ -18242,7 +18867,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -18250,7 +18875,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>345</v>
       </c>
     </row>
@@ -18258,7 +18883,7 @@
       <c r="G58" t="s">
         <v>576</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>464</v>
       </c>
     </row>
@@ -18266,7 +18891,7 @@
       <c r="G59" t="s">
         <v>293</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18274,7 +18899,7 @@
       <c r="G60" t="s">
         <v>302</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>132</v>
       </c>
     </row>
@@ -18282,7 +18907,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>133</v>
       </c>
     </row>
@@ -18290,7 +18915,7 @@
       <c r="G62" t="s">
         <v>336</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>134</v>
       </c>
     </row>
@@ -18298,7 +18923,7 @@
       <c r="G63" t="s">
         <v>308</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>135</v>
       </c>
     </row>
@@ -18306,7 +18931,7 @@
       <c r="G64" t="s">
         <v>309</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18314,7 +18939,7 @@
       <c r="G65" t="s">
         <v>368</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>137</v>
       </c>
     </row>
@@ -18322,7 +18947,7 @@
       <c r="G66" t="s">
         <v>369</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>439</v>
       </c>
     </row>
@@ -18330,7 +18955,7 @@
       <c r="G67" t="s">
         <v>344</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>472</v>
       </c>
     </row>
@@ -18338,7 +18963,7 @@
       <c r="G68" t="s">
         <v>312</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>213</v>
       </c>
     </row>
@@ -18346,7 +18971,7 @@
       <c r="G69" t="s">
         <v>268</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>388</v>
       </c>
     </row>
@@ -18354,7 +18979,7 @@
       <c r="G70" t="s">
         <v>559</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>440</v>
       </c>
     </row>
@@ -18362,7 +18987,7 @@
       <c r="G71" t="s">
         <v>313</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>138</v>
       </c>
     </row>
@@ -18370,7 +18995,7 @@
       <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>139</v>
       </c>
     </row>
@@ -18378,7 +19003,7 @@
       <c r="G73" t="s">
         <v>303</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>140</v>
       </c>
     </row>
@@ -18386,7 +19011,7 @@
       <c r="G74" t="s">
         <v>410</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18394,7 +19019,7 @@
       <c r="G75" t="s">
         <v>261</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -18402,7 +19027,7 @@
       <c r="G76" t="s">
         <v>540</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>197</v>
       </c>
     </row>
@@ -18410,7 +19035,7 @@
       <c r="G77" t="s">
         <v>343</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>452</v>
       </c>
     </row>
@@ -18418,7 +19043,7 @@
       <c r="G78" t="s">
         <v>279</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>465</v>
       </c>
     </row>
@@ -18426,7 +19051,7 @@
       <c r="G79" t="s">
         <v>285</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>142</v>
       </c>
     </row>
@@ -18434,7 +19059,7 @@
       <c r="G80" t="s">
         <v>290</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>143</v>
       </c>
     </row>
@@ -18442,7 +19067,7 @@
       <c r="G81" t="s">
         <v>428</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -18450,7 +19075,7 @@
       <c r="G82" t="s">
         <v>331</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>525</v>
       </c>
     </row>
@@ -18458,7 +19083,7 @@
       <c r="G83" t="s">
         <v>269</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>145</v>
       </c>
     </row>
@@ -18466,7 +19091,7 @@
       <c r="G84" t="s">
         <v>280</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18474,7 +19099,7 @@
       <c r="G85" t="s">
         <v>286</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -18482,7 +19107,7 @@
       <c r="G86" t="s">
         <v>275</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>516</v>
       </c>
     </row>
@@ -18490,7 +19115,7 @@
       <c r="G87" t="s">
         <v>560</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -18498,7 +19123,7 @@
       <c r="G88" t="s">
         <v>270</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>453</v>
       </c>
     </row>
@@ -18506,7 +19131,7 @@
       <c r="G89" t="s">
         <v>287</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>200</v>
       </c>
     </row>
@@ -18514,7 +19139,7 @@
       <c r="G90" t="s">
         <v>271</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>201</v>
       </c>
     </row>
@@ -18522,7 +19147,7 @@
       <c r="G91" t="s">
         <v>272</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>214</v>
       </c>
     </row>
@@ -18530,7 +19155,7 @@
       <c r="G92" t="s">
         <v>304</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>147</v>
       </c>
     </row>
@@ -18538,7 +19163,7 @@
       <c r="G93" t="s">
         <v>310</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>202</v>
       </c>
     </row>
@@ -18546,7 +19171,7 @@
       <c r="G94" t="s">
         <v>294</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>441</v>
       </c>
     </row>
@@ -18554,7 +19179,7 @@
       <c r="G95" t="s">
         <v>339</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>442</v>
       </c>
     </row>
@@ -18562,7 +19187,7 @@
       <c r="G96" t="s">
         <v>276</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>203</v>
       </c>
     </row>
@@ -18570,167 +19195,167 @@
       <c r="G97" t="s">
         <v>277</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13695" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15362" uniqueCount="584">
   <si>
     <t>description</t>
   </si>
@@ -1812,6 +1812,24 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1837,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="411" x14ac:knownFonts="1">
+  <fonts count="459" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4421,8 +4439,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="715">
+  <fills count="796">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8470,8 +8791,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="723">
+  <borders count="819">
     <border>
       <left/>
       <right/>
@@ -13971,6 +14751,984 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -15786,7 +17544,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="485">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17067,52 +18825,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="690" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="690" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="693" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="693" fontId="397" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="696" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="696" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="699" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="699" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="400" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="702" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="401" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="705" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="705" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="696" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="696" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="708" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="708" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="708" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="708" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="699" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="714" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="717" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="720" fontId="413" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="723" fontId="414" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="726" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="416" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="417" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="732" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="735" fontId="421" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="735" fontId="422" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="744" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="747" fontId="429" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="750" fontId="430" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="753" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="432" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="433" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="759" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="750" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="762" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="762" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="771" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="774" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="777" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="780" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="786" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="777" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="789" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="789" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17437,7 +19339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17818,7 +19720,7 @@
         <v>432</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>581</v>
       </c>
       <c r="H5" t="s">
         <v>459</v>
@@ -17892,7 +19794,7 @@
         <v>534</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
         <v>447</v>
@@ -17954,7 +19856,7 @@
         <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
         <v>446</v>
@@ -18016,7 +19918,7 @@
         <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
         <v>327</v>
@@ -18072,7 +19974,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="H9" t="s">
         <v>328</v>
@@ -18116,7 +20018,7 @@
         <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
         <v>451</v>
@@ -18157,7 +20059,7 @@
         <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
         <v>321</v>
@@ -18195,7 +20097,7 @@
         <v>318</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>322</v>
@@ -18233,7 +20135,7 @@
         <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
         <v>323</v>
@@ -18268,7 +20170,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H14" t="s">
         <v>324</v>
@@ -18303,7 +20205,7 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K15" t="s">
         <v>537</v>
@@ -18335,7 +20237,7 @@
         <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
@@ -18367,7 +20269,7 @@
         <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
@@ -18393,7 +20295,7 @@
         <v>414</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
         <v>462</v>
@@ -18416,7 +20318,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -18436,7 +20338,7 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -18456,7 +20358,7 @@
         <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
         <v>379</v>
@@ -18476,7 +20378,7 @@
         <v>573</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
         <v>469</v>
@@ -18496,7 +20398,7 @@
         <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -18516,13 +20418,13 @@
         <v>320</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
         <v>391</v>
       </c>
       <c r="Y24" t="s">
-        <v>110</v>
+        <v>578</v>
       </c>
       <c r="AD24" t="s">
         <v>570</v>
@@ -18536,13 +20438,13 @@
         <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
         <v>558</v>
       </c>
       <c r="Y25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD25" t="s">
         <v>571</v>
@@ -18556,13 +20458,13 @@
         <v>448</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD26" t="s">
         <v>235</v>
@@ -18576,13 +20478,13 @@
         <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
         <v>433</v>
       </c>
       <c r="Y27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s">
         <v>236</v>
@@ -18596,13 +20498,13 @@
         <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -18613,13 +20515,13 @@
         <v>467</v>
       </c>
       <c r="G29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
@@ -18630,10 +20532,10 @@
         <v>468</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -18641,10 +20543,10 @@
         <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -18652,10 +20554,10 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -18663,10 +20565,10 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>539</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -18674,10 +20576,10 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>539</v>
       </c>
       <c r="Y34" t="s">
-        <v>119</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35">
@@ -18685,10 +20587,10 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -18696,10 +20598,10 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -18707,10 +20609,10 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38">
@@ -18718,10 +20620,10 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="Y38" t="s">
-        <v>437</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -18729,633 +20631,661 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="Y39" t="s">
-        <v>564</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Y40" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>575</v>
+        <v>211</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>288</v>
+        <v>575</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Y46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s">
-        <v>438</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="Y48" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="Y49" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Y50" t="s">
-        <v>565</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="Y52" t="s">
-        <v>128</v>
+        <v>565</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Y54" t="s">
-        <v>509</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="Y56" t="s">
-        <v>130</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y57" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>576</v>
+        <v>292</v>
       </c>
       <c r="Y58" t="s">
-        <v>464</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>293</v>
+        <v>576</v>
       </c>
       <c r="Y59" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s">
-        <v>132</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="Y63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="Y65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>439</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="Y67" t="s">
-        <v>472</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y68" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>559</v>
+        <v>268</v>
       </c>
       <c r="Y70" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>313</v>
+        <v>559</v>
       </c>
       <c r="Y71" t="s">
-        <v>138</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="Y72" t="s">
-        <v>139</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="Y73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="Y74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="Y75" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>540</v>
+        <v>261</v>
       </c>
       <c r="Y76" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>343</v>
+        <v>540</v>
       </c>
       <c r="Y77" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="Y78" t="s">
-        <v>465</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y79" t="s">
-        <v>142</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Y80" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>428</v>
+        <v>290</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="Y82" t="s">
-        <v>525</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>146</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Y86" t="s">
-        <v>516</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>560</v>
+        <v>275</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="Y88" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Y90" t="s">
-        <v>201</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y91" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="Y92" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>202</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="Y94" t="s">
-        <v>441</v>
+        <v>583</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Y95" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>277</v>
       </c>
-      <c r="Y97" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>205</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>538</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>541</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>542</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>382</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>149</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>151</v>
+        <v>542</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>443</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>166</v>
+        <v>580</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -19,40 +19,41 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15362" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16484" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1830,6 +1831,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1856,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="459" x14ac:knownFonts="1">
+  <fonts count="491" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4742,8 +4761,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="796">
+  <fills count="850">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9250,8 +9471,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="819">
+  <borders count="883">
     <border>
       <left/>
       <right/>
@@ -14751,6 +15278,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -17544,7 +18723,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="485">
+  <cellXfs count="517">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18969,52 +20148,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="771" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="771" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="774" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="774" fontId="445" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="777" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="777" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="780" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="780" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="448" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="449" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="786" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="786" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="777" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="777" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="789" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="789" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="789" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="789" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="798" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="801" fontId="461" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="462" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="464" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="465" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="813" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="804" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="469" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="470" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="472" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="473" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="828" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="831" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="834" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="840" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="831" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="843" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="843" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19339,7 +20614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19364,81 +20639,84 @@
         <v>517</v>
       </c>
       <c r="E1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>543</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>510</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>356</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -19456,81 +20734,84 @@
         <v>518</v>
       </c>
       <c r="E2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>449</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>460</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>434</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>544</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>511</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>429</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>252</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>216</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>397</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>419</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>380</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>406</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>526</v>
       </c>
     </row>
@@ -19547,76 +20828,76 @@
       <c r="D3" t="s">
         <v>557</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>364</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>475</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>340</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>333</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>545</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>514</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>430</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>239</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>217</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>398</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>420</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>381</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -19630,82 +20911,82 @@
       <c r="D4" t="s">
         <v>519</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>450</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>508</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>237</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>334</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>546</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>513</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>218</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>399</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>421</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>584</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
@@ -19713,73 +20994,73 @@
       <c r="D5" t="s">
         <v>520</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>458</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>432</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>581</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>459</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>561</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>461</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>556</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>241</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>400</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>422</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
-        <v>354</v>
-      </c>
       <c r="Z5" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
@@ -19787,1505 +21068,1513 @@
       <c r="D6" t="s">
         <v>521</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>534</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>335</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>447</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>347</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>550</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>242</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>390</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>401</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>387</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>446</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>562</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>551</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>243</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>402</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>317</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>365</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>327</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>535</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>552</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>244</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>403</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>366</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>555</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>245</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>404</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>314</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>305</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>451</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>547</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>436</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>246</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" t="s">
+        <v>587</v>
+      </c>
+      <c r="H11" t="s">
         <v>351</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>321</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>536</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>470</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>548</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>318</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>273</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>322</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>389</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>563</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>549</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="s">
         <v>340</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>323</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>435</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>93</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>543</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>471</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>94</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>510</v>
-      </c>
-      <c r="E15" t="s">
+        <v>543</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>263</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>537</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>522</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" t="s">
+        <v>510</v>
+      </c>
+      <c r="F16" t="s">
         <v>384</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>264</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>80</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>577</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>523</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
         <v>385</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>316</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>81</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>524</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>414</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>462</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" t="s">
         <v>255</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
         <v>573</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>469</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>515</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>298</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" t="s">
         <v>320</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>289</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>578</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>278</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>558</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
         <v>448</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
         <v>224</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
         <v>225</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>265</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>467</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>282</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" t="s">
+        <v>468</v>
+      </c>
+      <c r="H30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>226</v>
       </c>
-      <c r="E30" t="s">
-        <v>468</v>
-      </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>415</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>274</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>539</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>259</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>329</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>306</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>564</v>
+      <c r="Z41" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>575</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>576</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>559</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>540</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>560</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16484" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17609" uniqueCount="595">
   <si>
     <t>description</t>
   </si>
@@ -1849,6 +1849,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1856,7 +1871,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="491" x14ac:knownFonts="1">
+  <fonts count="523" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4963,8 +4978,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="850">
+  <fills count="904">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9777,8 +9994,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="883">
+  <borders count="947">
     <border>
       <left/>
       <right/>
@@ -15278,6 +15801,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -18723,7 +19898,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="549">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20244,52 +21419,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="828" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="828" fontId="477" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="831" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="831" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="834" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="834" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="480" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="481" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="840" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="840" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="831" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="831" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="843" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="843" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="843" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="843" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="490" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="852" fontId="491" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="855" fontId="493" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="858" fontId="494" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="861" fontId="495" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="496" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="864" fontId="497" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="867" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="858" fontId="500" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="870" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="870" fontId="502" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="861" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="861" fontId="505" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="506" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="879" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="882" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="885" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="888" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="891" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="894" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="885" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="897" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="897" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="888" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="888" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20930,7 +22201,7 @@
         <v>349</v>
       </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>593</v>
       </c>
       <c r="M4" t="s">
         <v>334</v>
@@ -20966,7 +22237,7 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>594</v>
       </c>
       <c r="AA4" t="s">
         <v>172</v>
@@ -21013,7 +22284,7 @@
         <v>350</v>
       </c>
       <c r="L5" t="s">
-        <v>461</v>
+        <v>237</v>
       </c>
       <c r="N5" t="s">
         <v>86</v>
@@ -21084,7 +22355,7 @@
         <v>347</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>461</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -21146,7 +22417,7 @@
         <v>562</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
         <v>314</v>
@@ -21205,7 +22476,7 @@
         <v>327</v>
       </c>
       <c r="L8" t="s">
-        <v>535</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -21261,7 +22532,7 @@
         <v>328</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>535</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -21305,7 +22576,7 @@
         <v>451</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -21346,7 +22617,7 @@
         <v>321</v>
       </c>
       <c r="L11" t="s">
-        <v>536</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>470</v>
@@ -21384,7 +22655,7 @@
         <v>322</v>
       </c>
       <c r="L12" t="s">
-        <v>389</v>
+        <v>536</v>
       </c>
       <c r="N12" t="s">
         <v>563</v>
@@ -21422,7 +22693,7 @@
         <v>323</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="N13" t="s">
         <v>435</v>
@@ -21457,7 +22728,7 @@
         <v>324</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>471</v>
@@ -21489,7 +22760,7 @@
         <v>263</v>
       </c>
       <c r="L15" t="s">
-        <v>537</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -21521,7 +22792,7 @@
         <v>264</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="N16" t="s">
         <v>577</v>
@@ -21553,7 +22824,7 @@
         <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -21579,7 +22850,7 @@
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -21596,13 +22867,13 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>592</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -21616,13 +22887,13 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -21636,13 +22907,13 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -21656,13 +22927,13 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>573</v>
+        <v>255</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>469</v>
+        <v>591</v>
       </c>
       <c r="Z22" t="s">
         <v>515</v>
@@ -21676,13 +22947,13 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>573</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>469</v>
       </c>
       <c r="Z23" t="s">
         <v>109</v>
@@ -21696,13 +22967,13 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
       </c>
       <c r="L24" t="s">
-        <v>391</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>578</v>
@@ -21716,13 +22987,13 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>558</v>
+        <v>391</v>
       </c>
       <c r="Z25" t="s">
         <v>110</v>
@@ -21736,13 +23007,13 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>558</v>
       </c>
       <c r="Z26" t="s">
         <v>111</v>
@@ -21756,13 +23027,13 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="Z27" t="s">
         <v>112</v>
@@ -21776,13 +23047,13 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Z28" t="s">
         <v>113</v>
@@ -21793,13 +23064,13 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>326</v>
@@ -21810,10 +23081,13 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>114</v>
@@ -21824,7 +23098,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -21835,7 +23109,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -21846,7 +23120,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -21857,7 +23131,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>539</v>
@@ -21868,7 +23142,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -21879,7 +23153,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -21890,7 +23164,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -21901,7 +23175,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -21912,7 +23186,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -21922,6 +23196,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -19,13 +19,13 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17609" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18174" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1864,6 +1864,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1880,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="523" x14ac:knownFonts="1">
+  <fonts count="539" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5180,8 +5189,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="904">
+  <fills count="931">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10300,8 +10410,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="947">
+  <borders count="979">
     <border>
       <left/>
       <right/>
@@ -15801,6 +16064,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -19898,7 +20487,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="549">
+  <cellXfs count="565">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21515,52 +22104,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="876" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="879" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="879" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="882" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="882" fontId="509" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="885" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="885" fontId="510" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="888" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="888" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="512" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="891" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="891" fontId="513" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="894" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="894" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="885" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="885" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="897" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="897" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="897" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="897" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="888" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="888" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="900" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="888" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="888" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="903" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="903" fontId="522" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="906" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="909" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="912" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="915" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="921" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="912" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="924" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="924" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="915" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="915" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="930" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21885,7 +22522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22351,6 +22988,9 @@
       <c r="I6" t="s">
         <v>447</v>
       </c>
+      <c r="J6" t="s">
+        <v>595</v>
+      </c>
       <c r="K6" t="s">
         <v>347</v>
       </c>
@@ -22867,7 +23507,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>592</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -22887,7 +23527,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -22907,7 +23547,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -22927,7 +23567,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>573</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -22947,7 +23587,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>573</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -22967,7 +23607,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -22987,7 +23627,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -23007,7 +23647,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>448</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -23027,7 +23667,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -23047,7 +23687,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -23064,7 +23704,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>467</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -23081,7 +23721,7 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -23098,7 +23738,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -23109,7 +23749,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -23120,7 +23760,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -23131,7 +23771,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>539</v>
@@ -23142,7 +23782,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -23153,7 +23793,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -23164,7 +23804,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -23175,7 +23815,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -23186,7 +23826,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -23196,9 +23836,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
@@ -23672,186 +24309,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>442</v>
+        <v>596</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>203</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>538</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>586</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>148</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>149</v>
+        <v>542</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>580</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>164</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18174" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18739" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1880,7 +1880,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="539" x14ac:knownFonts="1">
+  <fonts count="555" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5290,8 +5290,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="931">
+  <fills count="958">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10563,8 +10664,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="979">
+  <borders count="1011">
     <border>
       <left/>
       <right/>
@@ -16064,6 +16318,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -20487,7 +21067,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="565">
+  <cellXfs count="581">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22152,52 +22732,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="903" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="906" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="906" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="909" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="909" fontId="525" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="912" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="912" fontId="526" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="915" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="915" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="528" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="918" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="918" fontId="529" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="921" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="921" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="912" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="912" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="924" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="924" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="924" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="924" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="915" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="915" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="915" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="915" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="930" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="930" fontId="538" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="933" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="936" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="939" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="942" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="948" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="939" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="951" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="951" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="954" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="957" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/section/artifact/script/GoogleSearch.xlsx
+++ b/examples/section/artifact/script/GoogleSearch.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18739" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19304" uniqueCount="598">
   <si>
     <t>description</t>
   </si>
@@ -1880,7 +1880,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="555" x14ac:knownFonts="1">
+  <fonts count="571" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5391,8 +5391,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="958">
+  <fills count="985">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10817,8 +10918,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1011">
+  <borders count="1043">
     <border>
       <left/>
       <right/>
@@ -16318,6 +16572,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -21067,7 +21647,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="581">
+  <cellXfs count="597">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22780,52 +23360,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="930" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="933" borderId="986" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="933" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="936" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="936" fontId="541" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="939" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="939" fontId="542" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="942" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="942" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="544" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="945" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="945" fontId="545" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="948" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="948" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="939" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="939" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="951" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="951" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="951" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="951" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="942" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="954" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="954" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="942" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="942" fontId="553" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="957" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="554" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="960" borderId="1018" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="963" borderId="1022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="966" borderId="1026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="969" borderId="1030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="972" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="975" borderId="1034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="966" borderId="1038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="565" fillId="978" borderId="1042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="566" fillId="978" borderId="1042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="567" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="568" fillId="981" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="569" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="570" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
